--- a/testmultiplent.xlsx
+++ b/testmultiplent.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19120"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejadaj\OneDrive - WWT\Attachments\vraScript\vRA-Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="16B528BCED3A50F2345D3D48E434B0DED3EBBA0F" xr6:coauthVersionLast="30" xr6:coauthVersionMax="30" xr10:uidLastSave="{38E96F69-1485-420D-A658-CEB3793A59C8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="testmultiplent" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
   <si>
     <t>theName</t>
   </si>
@@ -46,18 +45,9 @@
     <t>theNetworkProfile1</t>
   </si>
   <si>
-    <t>theNetworkPath2</t>
-  </si>
-  <si>
-    <t>theNetworkProfile2</t>
-  </si>
-  <si>
     <t>theDataStorePath1</t>
   </si>
   <si>
-    <t>theDataStorePath2</t>
-  </si>
-  <si>
     <t>theMemoryGB</t>
   </si>
   <si>
@@ -134,12 +124,6 @@
   </si>
   <si>
     <t>Management Network</t>
-  </si>
-  <si>
-    <t>Management VMs</t>
-  </si>
-  <si>
-    <t>Management Storage Cluster</t>
   </si>
   <si>
     <t>ReservationBG62</t>
@@ -158,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
@@ -1008,14 +992,12 @@
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,483 +1034,460 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>2048</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2">
-        <v>2048</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>2048</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3">
-        <v>2048</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>2048</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>2048</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="M4">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
         <v>2048</v>
       </c>
-      <c r="N4">
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="O4">
+      <c r="L6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>2048</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>2048</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J9">
+        <v>2048</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10">
         <v>2048</v>
       </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6">
+      <c r="J11">
         <v>2048</v>
       </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>2048</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="J7" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7">
+      <c r="J13">
         <v>2048</v>
       </c>
-      <c r="N7">
+      <c r="K13">
         <v>8</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8">
-        <v>2048</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9">
-        <v>2048</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10">
-        <v>2048</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11">
-        <v>2048</v>
-      </c>
-      <c r="N11">
-        <v>8</v>
-      </c>
-      <c r="O11">
+      <c r="L13">
         <v>1</v>
       </c>
     </row>
